--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.5816943761368</v>
+        <v>75.4398805</v>
       </c>
       <c r="H2">
-        <v>69.5816943761368</v>
+        <v>150.879761</v>
       </c>
       <c r="I2">
-        <v>0.6996482798324236</v>
+        <v>0.712088134965885</v>
       </c>
       <c r="J2">
-        <v>0.6996482798324236</v>
+        <v>0.6233963611410914</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.24739225000338</v>
+        <v>3.2518115</v>
       </c>
       <c r="N2">
-        <v>3.24739225000338</v>
+        <v>6.503622999999999</v>
       </c>
       <c r="O2">
-        <v>0.2993073609606174</v>
+        <v>0.2617763977697</v>
       </c>
       <c r="P2">
-        <v>0.2993073609606174</v>
+        <v>0.2047449818594686</v>
       </c>
       <c r="Q2">
-        <v>225.9590550591704</v>
+        <v>245.3162709685257</v>
       </c>
       <c r="R2">
-        <v>225.9590550591704</v>
+        <v>981.2650838741029</v>
       </c>
       <c r="S2">
-        <v>0.2094098802372782</v>
+        <v>0.1864078668659133</v>
       </c>
       <c r="T2">
-        <v>0.2094098802372782</v>
+        <v>0.1276372766530915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.5816943761368</v>
+        <v>75.4398805</v>
       </c>
       <c r="H3">
-        <v>69.5816943761368</v>
+        <v>150.879761</v>
       </c>
       <c r="I3">
-        <v>0.6996482798324236</v>
+        <v>0.712088134965885</v>
       </c>
       <c r="J3">
-        <v>0.6996482798324236</v>
+        <v>0.6233963611410914</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.934066310413586</v>
+        <v>1.145672333333333</v>
       </c>
       <c r="N3">
-        <v>0.934066310413586</v>
+        <v>3.437017</v>
       </c>
       <c r="O3">
-        <v>0.08609151614863289</v>
+        <v>0.09222858595721402</v>
       </c>
       <c r="P3">
-        <v>0.08609151614863289</v>
+        <v>0.1082030713212751</v>
       </c>
       <c r="Q3">
-        <v>64.99391653824387</v>
+        <v>86.42938391882284</v>
       </c>
       <c r="R3">
-        <v>64.99391653824387</v>
+        <v>518.576303512937</v>
       </c>
       <c r="S3">
-        <v>0.06023378118155632</v>
+        <v>0.06567488176481334</v>
       </c>
       <c r="T3">
-        <v>0.06023378118155632</v>
+        <v>0.06745340092597289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.5816943761368</v>
+        <v>75.4398805</v>
       </c>
       <c r="H4">
-        <v>69.5816943761368</v>
+        <v>150.879761</v>
       </c>
       <c r="I4">
-        <v>0.6996482798324236</v>
+        <v>0.712088134965885</v>
       </c>
       <c r="J4">
-        <v>0.6996482798324236</v>
+        <v>0.6233963611410914</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.05149290086781</v>
+        <v>1.087628</v>
       </c>
       <c r="N4">
-        <v>2.05149290086781</v>
+        <v>3.262884</v>
       </c>
       <c r="O4">
-        <v>0.1890830792576864</v>
+        <v>0.08755591766418912</v>
       </c>
       <c r="P4">
-        <v>0.1890830792576864</v>
+        <v>0.1027210718378895</v>
       </c>
       <c r="Q4">
-        <v>142.7463520429983</v>
+        <v>82.050526348454</v>
       </c>
       <c r="R4">
-        <v>142.7463520429983</v>
+        <v>492.303158090724</v>
       </c>
       <c r="S4">
-        <v>0.1322916511480581</v>
+        <v>0.06234753011471901</v>
       </c>
       <c r="T4">
-        <v>0.1322916511480581</v>
+        <v>0.06403594239625296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.5816943761368</v>
+        <v>75.4398805</v>
       </c>
       <c r="H5">
-        <v>69.5816943761368</v>
+        <v>150.879761</v>
       </c>
       <c r="I5">
-        <v>0.6996482798324236</v>
+        <v>0.712088134965885</v>
       </c>
       <c r="J5">
-        <v>0.6996482798324236</v>
+        <v>0.6233963611410914</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.41269662219061</v>
+        <v>2.111355666666667</v>
       </c>
       <c r="N5">
-        <v>2.41269662219061</v>
+        <v>6.334067</v>
       </c>
       <c r="O5">
-        <v>0.222374694275296</v>
+        <v>0.1699677490010241</v>
       </c>
       <c r="P5">
-        <v>0.222374694275296</v>
+        <v>0.19940707402807</v>
       </c>
       <c r="Q5">
-        <v>167.8795189876046</v>
+        <v>159.2804191863312</v>
       </c>
       <c r="R5">
-        <v>167.8795189876046</v>
+        <v>955.682515117987</v>
       </c>
       <c r="S5">
-        <v>0.155584072327972</v>
+        <v>0.1210320173904889</v>
       </c>
       <c r="T5">
-        <v>0.155584072327972</v>
+        <v>0.1243096443348911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>69.5816943761368</v>
+        <v>75.4398805</v>
       </c>
       <c r="H6">
-        <v>69.5816943761368</v>
+        <v>150.879761</v>
       </c>
       <c r="I6">
-        <v>0.6996482798324236</v>
+        <v>0.712088134965885</v>
       </c>
       <c r="J6">
-        <v>0.6996482798324236</v>
+        <v>0.6233963611410914</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.20404248070245</v>
+        <v>2.575657333333333</v>
       </c>
       <c r="N6">
-        <v>2.20404248070245</v>
+        <v>7.726972</v>
       </c>
       <c r="O6">
-        <v>0.2031433493577673</v>
+        <v>0.207344828754407</v>
       </c>
       <c r="P6">
-        <v>0.2031433493577673</v>
+        <v>0.2432580643079437</v>
       </c>
       <c r="Q6">
-        <v>153.3610102842603</v>
+        <v>194.3072814356154</v>
       </c>
       <c r="R6">
-        <v>153.3610102842603</v>
+        <v>1165.843688613692</v>
       </c>
       <c r="S6">
-        <v>0.142128894937559</v>
+        <v>0.1476477924025465</v>
       </c>
       <c r="T6">
-        <v>0.142128894937559</v>
+        <v>0.1516461921077977</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.98529618054065</v>
+        <v>75.4398805</v>
       </c>
       <c r="H7">
-        <v>1.98529618054065</v>
+        <v>150.879761</v>
       </c>
       <c r="I7">
-        <v>0.01996227700585444</v>
+        <v>0.712088134965885</v>
       </c>
       <c r="J7">
-        <v>0.01996227700585444</v>
+        <v>0.6233963611410914</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.24739225000338</v>
+        <v>2.249971</v>
       </c>
       <c r="N7">
-        <v>3.24739225000338</v>
+        <v>4.499942</v>
       </c>
       <c r="O7">
-        <v>0.2993073609606174</v>
+        <v>0.1811265208534658</v>
       </c>
       <c r="P7">
-        <v>0.2993073609606174</v>
+        <v>0.141665736645353</v>
       </c>
       <c r="Q7">
-        <v>6.447035430649017</v>
+        <v>169.7375433684655</v>
       </c>
       <c r="R7">
-        <v>6.447035430649017</v>
+        <v>678.950173473862</v>
       </c>
       <c r="S7">
-        <v>0.005974856449387106</v>
+        <v>0.1289780464274039</v>
       </c>
       <c r="T7">
-        <v>0.005974856449387106</v>
+        <v>0.08831390472308526</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.98529618054065</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H8">
-        <v>1.98529618054065</v>
+        <v>0.072031</v>
       </c>
       <c r="I8">
-        <v>0.01996227700585444</v>
+        <v>0.0002266370700738657</v>
       </c>
       <c r="J8">
-        <v>0.01996227700585444</v>
+        <v>0.000297613563222399</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.934066310413586</v>
+        <v>3.2518115</v>
       </c>
       <c r="N8">
-        <v>0.934066310413586</v>
+        <v>6.503622999999999</v>
       </c>
       <c r="O8">
-        <v>0.08609151614863289</v>
+        <v>0.2617763977697</v>
       </c>
       <c r="P8">
-        <v>0.08609151614863289</v>
+        <v>0.2047449818594686</v>
       </c>
       <c r="Q8">
-        <v>1.854398278435789</v>
+        <v>0.07807707805216665</v>
       </c>
       <c r="R8">
-        <v>1.854398278435789</v>
+        <v>0.4684624683129999</v>
       </c>
       <c r="S8">
-        <v>0.001718582693213</v>
+        <v>5.932823580501564E-05</v>
       </c>
       <c r="T8">
-        <v>0.001718582693213</v>
+        <v>6.09348836031019E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.98529618054065</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H9">
-        <v>1.98529618054065</v>
+        <v>0.072031</v>
       </c>
       <c r="I9">
-        <v>0.01996227700585444</v>
+        <v>0.0002266370700738657</v>
       </c>
       <c r="J9">
-        <v>0.01996227700585444</v>
+        <v>0.000297613563222399</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.05149290086781</v>
+        <v>1.145672333333333</v>
       </c>
       <c r="N9">
-        <v>2.05149290086781</v>
+        <v>3.437017</v>
       </c>
       <c r="O9">
-        <v>0.1890830792576864</v>
+        <v>0.09222858595721402</v>
       </c>
       <c r="P9">
-        <v>0.1890830792576864</v>
+        <v>0.1082030713212751</v>
       </c>
       <c r="Q9">
-        <v>4.072821020499122</v>
+        <v>0.02750797461411111</v>
       </c>
       <c r="R9">
-        <v>4.072821020499122</v>
+        <v>0.247571771527</v>
       </c>
       <c r="S9">
-        <v>0.003774528805261865</v>
+        <v>2.090241649839866E-05</v>
       </c>
       <c r="T9">
-        <v>0.003774528805261865</v>
+        <v>3.220270160753206E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.98529618054065</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H10">
-        <v>1.98529618054065</v>
+        <v>0.072031</v>
       </c>
       <c r="I10">
-        <v>0.01996227700585444</v>
+        <v>0.0002266370700738657</v>
       </c>
       <c r="J10">
-        <v>0.01996227700585444</v>
+        <v>0.000297613563222399</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.41269662219061</v>
+        <v>1.087628</v>
       </c>
       <c r="N10">
-        <v>2.41269662219061</v>
+        <v>3.262884</v>
       </c>
       <c r="O10">
-        <v>0.222374694275296</v>
+        <v>0.08755591766418912</v>
       </c>
       <c r="P10">
-        <v>0.222374694275296</v>
+        <v>0.1027210718378895</v>
       </c>
       <c r="Q10">
-        <v>4.789917388838346</v>
+        <v>0.02611431082266667</v>
       </c>
       <c r="R10">
-        <v>4.789917388838346</v>
+        <v>0.235028797404</v>
       </c>
       <c r="S10">
-        <v>0.004439105246215652</v>
+        <v>1.984341664704044E-05</v>
       </c>
       <c r="T10">
-        <v>0.004439105246215652</v>
+        <v>3.057118420769831E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.98529618054065</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H11">
-        <v>1.98529618054065</v>
+        <v>0.072031</v>
       </c>
       <c r="I11">
-        <v>0.01996227700585444</v>
+        <v>0.0002266370700738657</v>
       </c>
       <c r="J11">
-        <v>0.01996227700585444</v>
+        <v>0.000297613563222399</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.20404248070245</v>
+        <v>2.111355666666667</v>
       </c>
       <c r="N11">
-        <v>2.20404248070245</v>
+        <v>6.334067</v>
       </c>
       <c r="O11">
-        <v>0.2031433493577673</v>
+        <v>0.1699677490010241</v>
       </c>
       <c r="P11">
-        <v>0.2031433493577673</v>
+        <v>0.19940707402807</v>
       </c>
       <c r="Q11">
-        <v>4.375677118687913</v>
+        <v>0.05069435334188889</v>
       </c>
       <c r="R11">
-        <v>4.375677118687913</v>
+        <v>0.456249180077</v>
       </c>
       <c r="S11">
-        <v>0.004055203811776814</v>
+        <v>3.852099264064231E-05</v>
       </c>
       <c r="T11">
-        <v>0.004055203811776814</v>
+        <v>5.934624983324662E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.82720586787444</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H12">
-        <v>1.82720586787444</v>
+        <v>0.072031</v>
       </c>
       <c r="I12">
-        <v>0.01837266904492762</v>
+        <v>0.0002266370700738657</v>
       </c>
       <c r="J12">
-        <v>0.01837266904492762</v>
+        <v>0.000297613563222399</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.24739225000338</v>
+        <v>2.575657333333333</v>
       </c>
       <c r="N12">
-        <v>3.24739225000338</v>
+        <v>7.726972</v>
       </c>
       <c r="O12">
-        <v>0.2993073609606174</v>
+        <v>0.207344828754407</v>
       </c>
       <c r="P12">
-        <v>0.2993073609606174</v>
+        <v>0.2432580643079437</v>
       </c>
       <c r="Q12">
-        <v>5.933654174496156</v>
+        <v>0.06184239112577777</v>
       </c>
       <c r="R12">
-        <v>5.933654174496156</v>
+        <v>0.556581520132</v>
       </c>
       <c r="S12">
-        <v>0.005499075085640112</v>
+        <v>4.699202448386623E-05</v>
       </c>
       <c r="T12">
-        <v>0.005499075085640112</v>
+        <v>7.239689930127062E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.82720586787444</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H13">
-        <v>1.82720586787444</v>
+        <v>0.072031</v>
       </c>
       <c r="I13">
-        <v>0.01837266904492762</v>
+        <v>0.0002266370700738657</v>
       </c>
       <c r="J13">
-        <v>0.01837266904492762</v>
+        <v>0.000297613563222399</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.934066310413586</v>
+        <v>2.249971</v>
       </c>
       <c r="N13">
-        <v>0.934066310413586</v>
+        <v>4.499942</v>
       </c>
       <c r="O13">
-        <v>0.08609151614863289</v>
+        <v>0.1811265208534658</v>
       </c>
       <c r="P13">
-        <v>0.08609151614863289</v>
+        <v>0.141665736645353</v>
       </c>
       <c r="Q13">
-        <v>1.706731443371533</v>
+        <v>0.05402255370033333</v>
       </c>
       <c r="R13">
-        <v>1.706731443371533</v>
+        <v>0.324135322202</v>
       </c>
       <c r="S13">
-        <v>0.001581730933774874</v>
+        <v>4.104998399890241E-05</v>
       </c>
       <c r="T13">
-        <v>0.001581730933774874</v>
+        <v>4.216164466954951E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.82720586787444</v>
+        <v>2.035881666666667</v>
       </c>
       <c r="H14">
-        <v>1.82720586787444</v>
+        <v>6.107645</v>
       </c>
       <c r="I14">
-        <v>0.01837266904492762</v>
+        <v>0.0192169866842234</v>
       </c>
       <c r="J14">
-        <v>0.01837266904492762</v>
+        <v>0.02523521804983228</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.05149290086781</v>
+        <v>3.2518115</v>
       </c>
       <c r="N14">
-        <v>2.05149290086781</v>
+        <v>6.503622999999999</v>
       </c>
       <c r="O14">
-        <v>0.1890830792576864</v>
+        <v>0.2617763977697</v>
       </c>
       <c r="P14">
-        <v>0.1890830792576864</v>
+        <v>0.2047449818594686</v>
       </c>
       <c r="Q14">
-        <v>3.74849986636842</v>
+        <v>6.620303416305832</v>
       </c>
       <c r="R14">
-        <v>3.74849986636842</v>
+        <v>39.721820497835</v>
       </c>
       <c r="S14">
-        <v>0.003473960837197291</v>
+        <v>0.005030553550184292</v>
       </c>
       <c r="T14">
-        <v>0.003473960837197291</v>
+        <v>0.005166784261832646</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.82720586787444</v>
+        <v>2.035881666666667</v>
       </c>
       <c r="H15">
-        <v>1.82720586787444</v>
+        <v>6.107645</v>
       </c>
       <c r="I15">
-        <v>0.01837266904492762</v>
+        <v>0.0192169866842234</v>
       </c>
       <c r="J15">
-        <v>0.01837266904492762</v>
+        <v>0.02523521804983228</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>2.41269662219061</v>
+        <v>1.145672333333333</v>
       </c>
       <c r="N15">
-        <v>2.41269662219061</v>
+        <v>3.437017</v>
       </c>
       <c r="O15">
-        <v>0.222374694275296</v>
+        <v>0.09222858595721402</v>
       </c>
       <c r="P15">
-        <v>0.222374694275296</v>
+        <v>0.1082030713212751</v>
       </c>
       <c r="Q15">
-        <v>4.408493425467523</v>
+        <v>2.332453299440556</v>
       </c>
       <c r="R15">
-        <v>4.408493425467523</v>
+        <v>20.992079694965</v>
       </c>
       <c r="S15">
-        <v>0.004085616661886974</v>
+        <v>0.001772355508244535</v>
       </c>
       <c r="T15">
-        <v>0.004085616661886974</v>
+        <v>0.002730528098453932</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.82720586787444</v>
+        <v>2.035881666666667</v>
       </c>
       <c r="H16">
-        <v>1.82720586787444</v>
+        <v>6.107645</v>
       </c>
       <c r="I16">
-        <v>0.01837266904492762</v>
+        <v>0.0192169866842234</v>
       </c>
       <c r="J16">
-        <v>0.01837266904492762</v>
+        <v>0.02523521804983228</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.20404248070245</v>
+        <v>1.087628</v>
       </c>
       <c r="N16">
-        <v>2.20404248070245</v>
+        <v>3.262884</v>
       </c>
       <c r="O16">
-        <v>0.2031433493577673</v>
+        <v>0.08755591766418912</v>
       </c>
       <c r="P16">
-        <v>0.2031433493577673</v>
+        <v>0.1027210718378895</v>
       </c>
       <c r="Q16">
-        <v>4.027239353784054</v>
+        <v>2.214281905353333</v>
       </c>
       <c r="R16">
-        <v>4.027239353784054</v>
+        <v>19.92853714818</v>
       </c>
       <c r="S16">
-        <v>0.003732285526428369</v>
+        <v>0.001682560903877682</v>
       </c>
       <c r="T16">
-        <v>0.003732285526428369</v>
+        <v>0.002592188646141628</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.7343428683338</v>
+        <v>2.035881666666667</v>
       </c>
       <c r="H17">
-        <v>25.7343428683338</v>
+        <v>6.107645</v>
       </c>
       <c r="I17">
-        <v>0.2587604237275141</v>
+        <v>0.0192169866842234</v>
       </c>
       <c r="J17">
-        <v>0.2587604237275141</v>
+        <v>0.02523521804983228</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.24739225000338</v>
+        <v>2.111355666666667</v>
       </c>
       <c r="N17">
-        <v>3.24739225000338</v>
+        <v>6.334067</v>
       </c>
       <c r="O17">
-        <v>0.2993073609606174</v>
+        <v>0.1699677490010241</v>
       </c>
       <c r="P17">
-        <v>0.2993073609606174</v>
+        <v>0.19940707402807</v>
       </c>
       <c r="Q17">
-        <v>83.56950558955694</v>
+        <v>4.298470293579444</v>
       </c>
       <c r="R17">
-        <v>83.56950558955694</v>
+        <v>38.686232642215</v>
       </c>
       <c r="S17">
-        <v>0.07744889954693338</v>
+        <v>0.003266267969300104</v>
       </c>
       <c r="T17">
-        <v>0.07744889954693338</v>
+        <v>0.005032080993777395</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>25.7343428683338</v>
+        <v>2.035881666666667</v>
       </c>
       <c r="H18">
-        <v>25.7343428683338</v>
+        <v>6.107645</v>
       </c>
       <c r="I18">
-        <v>0.2587604237275141</v>
+        <v>0.0192169866842234</v>
       </c>
       <c r="J18">
-        <v>0.2587604237275141</v>
+        <v>0.02523521804983228</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.934066310413586</v>
+        <v>2.575657333333333</v>
       </c>
       <c r="N18">
-        <v>0.934066310413586</v>
+        <v>7.726972</v>
       </c>
       <c r="O18">
-        <v>0.08609151614863289</v>
+        <v>0.207344828754407</v>
       </c>
       <c r="P18">
-        <v>0.08609151614863289</v>
+        <v>0.2432580643079437</v>
       </c>
       <c r="Q18">
-        <v>24.03758269394273</v>
+        <v>5.243733544548889</v>
       </c>
       <c r="R18">
-        <v>24.03758269394273</v>
+        <v>47.19360190094</v>
       </c>
       <c r="S18">
-        <v>0.02227707719796437</v>
+        <v>0.00398454281321602</v>
       </c>
       <c r="T18">
-        <v>0.02227707719796437</v>
+        <v>0.006138670295191084</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>25.7343428683338</v>
+        <v>2.035881666666667</v>
       </c>
       <c r="H19">
-        <v>25.7343428683338</v>
+        <v>6.107645</v>
       </c>
       <c r="I19">
-        <v>0.2587604237275141</v>
+        <v>0.0192169866842234</v>
       </c>
       <c r="J19">
-        <v>0.2587604237275141</v>
+        <v>0.02523521804983228</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.05149290086781</v>
+        <v>2.249971</v>
       </c>
       <c r="N19">
-        <v>2.05149290086781</v>
+        <v>4.499942</v>
       </c>
       <c r="O19">
-        <v>0.1890830792576864</v>
+        <v>0.1811265208534658</v>
       </c>
       <c r="P19">
-        <v>0.1890830792576864</v>
+        <v>0.141665736645353</v>
       </c>
       <c r="Q19">
-        <v>52.79382170288496</v>
+        <v>4.580674709431666</v>
       </c>
       <c r="R19">
-        <v>52.79382170288496</v>
+        <v>27.48404825659</v>
       </c>
       <c r="S19">
-        <v>0.04892721770842207</v>
+        <v>0.003480705939400763</v>
       </c>
       <c r="T19">
-        <v>0.04892721770842207</v>
+        <v>0.0035749657544356</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.7343428683338</v>
+        <v>1.829545333333333</v>
       </c>
       <c r="H20">
-        <v>25.7343428683338</v>
+        <v>5.488636</v>
       </c>
       <c r="I20">
-        <v>0.2587604237275141</v>
+        <v>0.0172693476661707</v>
       </c>
       <c r="J20">
-        <v>0.2587604237275141</v>
+        <v>0.02267763209160966</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.41269662219061</v>
+        <v>3.2518115</v>
       </c>
       <c r="N20">
-        <v>2.41269662219061</v>
+        <v>6.503622999999999</v>
       </c>
       <c r="O20">
-        <v>0.222374694275296</v>
+        <v>0.2617763977697</v>
       </c>
       <c r="P20">
-        <v>0.222374694275296</v>
+        <v>0.2047449818594686</v>
       </c>
       <c r="Q20">
-        <v>62.08916211272398</v>
+        <v>5.949336554704665</v>
       </c>
       <c r="R20">
-        <v>62.08916211272398</v>
+        <v>35.69601932822799</v>
       </c>
       <c r="S20">
-        <v>0.05754177011695201</v>
+        <v>0.004520707623882742</v>
       </c>
       <c r="T20">
-        <v>0.05754177011695201</v>
+        <v>0.004643131371212322</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.7343428683338</v>
+        <v>1.829545333333333</v>
       </c>
       <c r="H21">
-        <v>25.7343428683338</v>
+        <v>5.488636</v>
       </c>
       <c r="I21">
-        <v>0.2587604237275141</v>
+        <v>0.0172693476661707</v>
       </c>
       <c r="J21">
-        <v>0.2587604237275141</v>
+        <v>0.02267763209160966</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.20404248070245</v>
+        <v>1.145672333333333</v>
       </c>
       <c r="N21">
-        <v>2.20404248070245</v>
+        <v>3.437017</v>
       </c>
       <c r="O21">
-        <v>0.2031433493577673</v>
+        <v>0.09222858595721402</v>
       </c>
       <c r="P21">
-        <v>0.2031433493577673</v>
+        <v>0.1082030713212751</v>
       </c>
       <c r="Q21">
-        <v>56.71958489476984</v>
+        <v>2.096059470979111</v>
       </c>
       <c r="R21">
-        <v>56.71958489476984</v>
+        <v>18.864535238812</v>
       </c>
       <c r="S21">
-        <v>0.05256545915724231</v>
+        <v>0.001592727515654438</v>
       </c>
       <c r="T21">
-        <v>0.05256545915724231</v>
+        <v>0.002453789442606077</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.323851832556186</v>
+        <v>1.829545333333333</v>
       </c>
       <c r="H22">
-        <v>0.323851832556186</v>
+        <v>5.488636</v>
       </c>
       <c r="I22">
-        <v>0.003256350389280267</v>
+        <v>0.0172693476661707</v>
       </c>
       <c r="J22">
-        <v>0.003256350389280267</v>
+        <v>0.02267763209160966</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.24739225000338</v>
+        <v>1.087628</v>
       </c>
       <c r="N22">
-        <v>3.24739225000338</v>
+        <v>3.262884</v>
       </c>
       <c r="O22">
-        <v>0.2993073609606174</v>
+        <v>0.08755591766418912</v>
       </c>
       <c r="P22">
-        <v>0.2993073609606174</v>
+        <v>0.1027210718378895</v>
       </c>
       <c r="Q22">
-        <v>1.051673931192351</v>
+        <v>1.989864731802667</v>
       </c>
       <c r="R22">
-        <v>1.051673931192351</v>
+        <v>17.908782586224</v>
       </c>
       <c r="S22">
-        <v>0.0009746496413785559</v>
+        <v>0.001512033582373498</v>
       </c>
       <c r="T22">
-        <v>0.0009746496413785559</v>
+        <v>0.002329470675195463</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.323851832556186</v>
+        <v>1.829545333333333</v>
       </c>
       <c r="H23">
-        <v>0.323851832556186</v>
+        <v>5.488636</v>
       </c>
       <c r="I23">
-        <v>0.003256350389280267</v>
+        <v>0.0172693476661707</v>
       </c>
       <c r="J23">
-        <v>0.003256350389280267</v>
+        <v>0.02267763209160966</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.934066310413586</v>
+        <v>2.111355666666667</v>
       </c>
       <c r="N23">
-        <v>0.934066310413586</v>
+        <v>6.334067</v>
       </c>
       <c r="O23">
-        <v>0.08609151614863289</v>
+        <v>0.1699677490010241</v>
       </c>
       <c r="P23">
-        <v>0.08609151614863289</v>
+        <v>0.19940707402807</v>
       </c>
       <c r="Q23">
-        <v>0.3024990863564351</v>
+        <v>3.862820906956889</v>
       </c>
       <c r="R23">
-        <v>0.3024990863564351</v>
+        <v>34.765388162612</v>
       </c>
       <c r="S23">
-        <v>0.0002803441421243291</v>
+        <v>0.002935232149535122</v>
       </c>
       <c r="T23">
-        <v>0.0002803441421243291</v>
+        <v>0.004522080261272943</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.323851832556186</v>
+        <v>1.829545333333333</v>
       </c>
       <c r="H24">
-        <v>0.323851832556186</v>
+        <v>5.488636</v>
       </c>
       <c r="I24">
-        <v>0.003256350389280267</v>
+        <v>0.0172693476661707</v>
       </c>
       <c r="J24">
-        <v>0.003256350389280267</v>
+        <v>0.02267763209160966</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.05149290086781</v>
+        <v>2.575657333333333</v>
       </c>
       <c r="N24">
-        <v>2.05149290086781</v>
+        <v>7.726972</v>
       </c>
       <c r="O24">
-        <v>0.1890830792576864</v>
+        <v>0.207344828754407</v>
       </c>
       <c r="P24">
-        <v>0.1890830792576864</v>
+        <v>0.2432580643079437</v>
       </c>
       <c r="Q24">
-        <v>0.6643797354220463</v>
+        <v>4.712281854465777</v>
       </c>
       <c r="R24">
-        <v>0.6643797354220463</v>
+        <v>42.410536690192</v>
       </c>
       <c r="S24">
-        <v>0.0006157207587470788</v>
+        <v>0.003580709934542483</v>
       </c>
       <c r="T24">
-        <v>0.0006157207587470788</v>
+        <v>0.00551651688569267</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.323851832556186</v>
+        <v>1.829545333333333</v>
       </c>
       <c r="H25">
-        <v>0.323851832556186</v>
+        <v>5.488636</v>
       </c>
       <c r="I25">
-        <v>0.003256350389280267</v>
+        <v>0.0172693476661707</v>
       </c>
       <c r="J25">
-        <v>0.003256350389280267</v>
+        <v>0.02267763209160966</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.41269662219061</v>
+        <v>2.249971</v>
       </c>
       <c r="N25">
-        <v>2.41269662219061</v>
+        <v>4.499942</v>
       </c>
       <c r="O25">
-        <v>0.222374694275296</v>
+        <v>0.1811265208534658</v>
       </c>
       <c r="P25">
-        <v>0.222374694275296</v>
+        <v>0.141665736645353</v>
       </c>
       <c r="Q25">
-        <v>0.781356222498549</v>
+        <v>4.116423943185333</v>
       </c>
       <c r="R25">
-        <v>0.781356222498549</v>
+        <v>24.698543659112</v>
       </c>
       <c r="S25">
-        <v>0.0007241299222694406</v>
+        <v>0.003127936860182417</v>
       </c>
       <c r="T25">
-        <v>0.0007241299222694406</v>
+        <v>0.00321264345563018</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2013,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>26.255634</v>
+      </c>
+      <c r="H26">
+        <v>78.766902</v>
+      </c>
+      <c r="I26">
+        <v>0.2478307935205024</v>
+      </c>
+      <c r="J26">
+        <v>0.3254445775875597</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.2518115</v>
+      </c>
+      <c r="N26">
+        <v>6.503622999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.2617763977697</v>
+      </c>
+      <c r="P26">
+        <v>0.2047449818594686</v>
+      </c>
+      <c r="Q26">
+        <v>85.378372580991</v>
+      </c>
+      <c r="R26">
+        <v>512.2702354859459</v>
+      </c>
+      <c r="S26">
+        <v>0.06487625238420344</v>
+      </c>
+      <c r="T26">
+        <v>0.06663314413442732</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>26.255634</v>
+      </c>
+      <c r="H27">
+        <v>78.766902</v>
+      </c>
+      <c r="I27">
+        <v>0.2478307935205024</v>
+      </c>
+      <c r="J27">
+        <v>0.3254445775875597</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>1.145672333333333</v>
+      </c>
+      <c r="N27">
+        <v>3.437017</v>
+      </c>
+      <c r="O27">
+        <v>0.09222858595721402</v>
+      </c>
+      <c r="P27">
+        <v>0.1082030713212751</v>
+      </c>
+      <c r="Q27">
+        <v>30.080353467926</v>
+      </c>
+      <c r="R27">
+        <v>270.723181211334</v>
+      </c>
+      <c r="S27">
+        <v>0.02285708364305022</v>
+      </c>
+      <c r="T27">
+        <v>0.03521410283982897</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>26.255634</v>
+      </c>
+      <c r="H28">
+        <v>78.766902</v>
+      </c>
+      <c r="I28">
+        <v>0.2478307935205024</v>
+      </c>
+      <c r="J28">
+        <v>0.3254445775875597</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.087628</v>
+      </c>
+      <c r="N28">
+        <v>3.262884</v>
+      </c>
+      <c r="O28">
+        <v>0.08755591766418912</v>
+      </c>
+      <c r="P28">
+        <v>0.1027210718378895</v>
+      </c>
+      <c r="Q28">
+        <v>28.556362696152</v>
+      </c>
+      <c r="R28">
+        <v>257.007264265368</v>
+      </c>
+      <c r="S28">
+        <v>0.02169905255213176</v>
+      </c>
+      <c r="T28">
+        <v>0.03343001583362332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>26.255634</v>
+      </c>
+      <c r="H29">
+        <v>78.766902</v>
+      </c>
+      <c r="I29">
+        <v>0.2478307935205024</v>
+      </c>
+      <c r="J29">
+        <v>0.3254445775875597</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2.111355666666667</v>
+      </c>
+      <c r="N29">
+        <v>6.334067</v>
+      </c>
+      <c r="O29">
+        <v>0.1699677490010241</v>
+      </c>
+      <c r="P29">
+        <v>0.19940707402807</v>
+      </c>
+      <c r="Q29">
+        <v>55.43498162782601</v>
+      </c>
+      <c r="R29">
+        <v>498.914834650434</v>
+      </c>
+      <c r="S29">
+        <v>0.04212324210781738</v>
+      </c>
+      <c r="T29">
+        <v>0.06489595097503649</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>26.255634</v>
+      </c>
+      <c r="H30">
+        <v>78.766902</v>
+      </c>
+      <c r="I30">
+        <v>0.2478307935205024</v>
+      </c>
+      <c r="J30">
+        <v>0.3254445775875597</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.575657333333333</v>
+      </c>
+      <c r="N30">
+        <v>7.726972</v>
+      </c>
+      <c r="O30">
+        <v>0.207344828754407</v>
+      </c>
+      <c r="P30">
+        <v>0.2432580643079437</v>
+      </c>
+      <c r="Q30">
+        <v>67.62551625341601</v>
+      </c>
+      <c r="R30">
+        <v>608.6296462807441</v>
+      </c>
+      <c r="S30">
+        <v>0.05138643344257739</v>
+      </c>
+      <c r="T30">
+        <v>0.07916701798346618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>26.255634</v>
+      </c>
+      <c r="H31">
+        <v>78.766902</v>
+      </c>
+      <c r="I31">
+        <v>0.2478307935205024</v>
+      </c>
+      <c r="J31">
+        <v>0.3254445775875597</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.249971</v>
+      </c>
+      <c r="N31">
+        <v>4.499942</v>
+      </c>
+      <c r="O31">
+        <v>0.1811265208534658</v>
+      </c>
+      <c r="P31">
+        <v>0.141665736645353</v>
+      </c>
+      <c r="Q31">
+        <v>59.074415086614</v>
+      </c>
+      <c r="R31">
+        <v>354.446490519684</v>
+      </c>
+      <c r="S31">
+        <v>0.04488872939072225</v>
+      </c>
+      <c r="T31">
+        <v>0.04610434582117739</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3568225</v>
+      </c>
+      <c r="H32">
+        <v>0.7136450000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.00336810009314456</v>
+      </c>
+      <c r="J32">
+        <v>0.002948597566684469</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.2518115</v>
+      </c>
+      <c r="N32">
+        <v>6.503622999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.2617763977697</v>
+      </c>
+      <c r="P32">
+        <v>0.2047449818594686</v>
+      </c>
+      <c r="Q32">
+        <v>1.16031950895875</v>
+      </c>
+      <c r="R32">
+        <v>4.641278035835</v>
+      </c>
+      <c r="S32">
+        <v>0.0008816891097111741</v>
+      </c>
+      <c r="T32">
+        <v>0.0006037105553016849</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3568225</v>
+      </c>
+      <c r="H33">
+        <v>0.7136450000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.00336810009314456</v>
+      </c>
+      <c r="J33">
+        <v>0.002948597566684469</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>1.145672333333333</v>
+      </c>
+      <c r="N33">
+        <v>3.437017</v>
+      </c>
+      <c r="O33">
+        <v>0.09222858595721402</v>
+      </c>
+      <c r="P33">
+        <v>0.1082030713212751</v>
+      </c>
+      <c r="Q33">
+        <v>0.4088016661608334</v>
+      </c>
+      <c r="R33">
+        <v>2.452809996965</v>
+      </c>
+      <c r="S33">
+        <v>0.0003106351089530836</v>
+      </c>
+      <c r="T33">
+        <v>0.0003190473128056979</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3568225</v>
+      </c>
+      <c r="H34">
+        <v>0.7136450000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.00336810009314456</v>
+      </c>
+      <c r="J34">
+        <v>0.002948597566684469</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.087628</v>
+      </c>
+      <c r="N34">
+        <v>3.262884</v>
+      </c>
+      <c r="O34">
+        <v>0.08755591766418912</v>
+      </c>
+      <c r="P34">
+        <v>0.1027210718378895</v>
+      </c>
+      <c r="Q34">
+        <v>0.3880901420300001</v>
+      </c>
+      <c r="R34">
+        <v>2.32854085218</v>
+      </c>
+      <c r="S34">
+        <v>0.0002948970944401128</v>
+      </c>
+      <c r="T34">
+        <v>0.0003028831024684215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3568225</v>
+      </c>
+      <c r="H35">
+        <v>0.7136450000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.00336810009314456</v>
+      </c>
+      <c r="J35">
+        <v>0.002948597566684469</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2.111355666666667</v>
+      </c>
+      <c r="N35">
+        <v>6.334067</v>
+      </c>
+      <c r="O35">
+        <v>0.1699677490010241</v>
+      </c>
+      <c r="P35">
+        <v>0.19940707402807</v>
+      </c>
+      <c r="Q35">
+        <v>0.7533792073691669</v>
+      </c>
+      <c r="R35">
+        <v>4.520275244215001</v>
+      </c>
+      <c r="S35">
+        <v>0.0005724683912419204</v>
+      </c>
+      <c r="T35">
+        <v>0.0005879712132588371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.323851832556186</v>
-      </c>
-      <c r="H26">
-        <v>0.323851832556186</v>
-      </c>
-      <c r="I26">
-        <v>0.003256350389280267</v>
-      </c>
-      <c r="J26">
-        <v>0.003256350389280267</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>2.20404248070245</v>
-      </c>
-      <c r="N26">
-        <v>2.20404248070245</v>
-      </c>
-      <c r="O26">
-        <v>0.2031433493577673</v>
-      </c>
-      <c r="P26">
-        <v>0.2031433493577673</v>
-      </c>
-      <c r="Q26">
-        <v>0.7137831964071707</v>
-      </c>
-      <c r="R26">
-        <v>0.7137831964071707</v>
-      </c>
-      <c r="S26">
-        <v>0.000661505924760863</v>
-      </c>
-      <c r="T26">
-        <v>0.000661505924760863</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3568225</v>
+      </c>
+      <c r="H36">
+        <v>0.7136450000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.00336810009314456</v>
+      </c>
+      <c r="J36">
+        <v>0.002948597566684469</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.575657333333333</v>
+      </c>
+      <c r="N36">
+        <v>7.726972</v>
+      </c>
+      <c r="O36">
+        <v>0.207344828754407</v>
+      </c>
+      <c r="P36">
+        <v>0.2432580643079437</v>
+      </c>
+      <c r="Q36">
+        <v>0.9190524888233335</v>
+      </c>
+      <c r="R36">
+        <v>5.514314932940001</v>
+      </c>
+      <c r="S36">
+        <v>0.0006983581370407613</v>
+      </c>
+      <c r="T36">
+        <v>0.000717270136494777</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3568225</v>
+      </c>
+      <c r="H37">
+        <v>0.7136450000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.00336810009314456</v>
+      </c>
+      <c r="J37">
+        <v>0.002948597566684469</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.249971</v>
+      </c>
+      <c r="N37">
+        <v>4.499942</v>
+      </c>
+      <c r="O37">
+        <v>0.1811265208534658</v>
+      </c>
+      <c r="P37">
+        <v>0.141665736645353</v>
+      </c>
+      <c r="Q37">
+        <v>0.8028402771475001</v>
+      </c>
+      <c r="R37">
+        <v>3.21136110859</v>
+      </c>
+      <c r="S37">
+        <v>0.0006100522517575082</v>
+      </c>
+      <c r="T37">
+        <v>0.0004177152463550508</v>
       </c>
     </row>
   </sheetData>
